--- a/outputs/summary_stats/regression constants.xlsx
+++ b/outputs/summary_stats/regression constants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Documents\projects\sufficcs_mobility\outputs\summary_stats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C7C4287-C18C-4E15-B6D1-258E57C099DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ED0F7EA-3F98-4A7B-B0F0-2B931CFD6E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{58B28DB4-57BE-4BAA-BD6A-7792F4475487}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{58B28DB4-57BE-4BAA-BD6A-7792F4475487}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -432,13 +432,15 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -471,16 +473,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.3999999999999999E-4</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="C3">
-        <v>0.45900000000000002</v>
+        <v>0.45400000000000001</v>
       </c>
       <c r="D3">
-        <v>4.8000000000000001E-5</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="E3">
-        <v>0.42299999999999999</v>
+        <v>0.46200000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -488,16 +490,16 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>5.4000000000000001E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="C4">
-        <v>0.19700000000000001</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="D4">
-        <v>3.1999999999999999E-5</v>
+        <v>2.8E-5</v>
       </c>
       <c r="E4">
-        <v>0.17499999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -505,16 +507,16 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.9000000000000001E-4</v>
+        <v>4.1999999999999998E-5</v>
       </c>
       <c r="C5">
-        <v>0.36299999999999999</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D5">
-        <v>3.1000000000000001E-5</v>
+        <v>2.9E-5</v>
       </c>
       <c r="E5">
-        <v>0.37</v>
+        <v>0.39100000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -522,16 +524,16 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2.5999999999999998E-4</v>
+        <v>6.8999999999999997E-5</v>
       </c>
       <c r="C6">
-        <v>0.27400000000000002</v>
+        <v>0.56399999999999995</v>
       </c>
       <c r="D6">
-        <v>3.4999999999999997E-5</v>
+        <v>3.3000000000000003E-5</v>
       </c>
       <c r="E6">
-        <v>0.372</v>
+        <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -539,16 +541,16 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.4999999999999999E-4</v>
+        <v>3.4E-5</v>
       </c>
       <c r="C7">
-        <v>0.46800000000000003</v>
+        <v>0.503</v>
       </c>
       <c r="D7">
-        <v>1.2999999999999999E-5</v>
+        <v>1.7E-5</v>
       </c>
       <c r="E7">
-        <v>0.41599999999999998</v>
+        <v>0.59099999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -556,16 +558,16 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.7000000000000002E-4</v>
+        <v>6.4999999999999994E-5</v>
       </c>
       <c r="C8">
-        <v>0.16200000000000001</v>
+        <v>0.30199999999999999</v>
       </c>
       <c r="D8">
-        <v>3.1999999999999999E-5</v>
+        <v>2.8E-5</v>
       </c>
       <c r="E8">
-        <v>0.28499999999999998</v>
+        <v>0.249</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -598,16 +600,16 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>0.68799999999999994</v>
+        <v>0.61699999999999999</v>
       </c>
       <c r="C11">
-        <v>0.65200000000000002</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="D11">
-        <v>1.976</v>
+        <v>2.0590000000000002</v>
       </c>
       <c r="E11">
-        <v>0.40899999999999997</v>
+        <v>0.43099999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -615,16 +617,16 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>0.77400000000000002</v>
+        <v>0.59499999999999997</v>
       </c>
       <c r="C12">
-        <v>0.39800000000000002</v>
+        <v>0.221</v>
       </c>
       <c r="D12">
-        <v>2.214</v>
+        <v>1.8959999999999999</v>
       </c>
       <c r="E12">
-        <v>0.21</v>
+        <v>0.14499999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -632,16 +634,16 @@
         <v>4</v>
       </c>
       <c r="B13">
-        <v>0.49</v>
+        <v>0.52200000000000002</v>
       </c>
       <c r="C13">
-        <v>0.55500000000000005</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="D13">
-        <v>2.073</v>
+        <v>2.0950000000000002</v>
       </c>
       <c r="E13">
-        <v>0.42899999999999999</v>
+        <v>0.433</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -649,16 +651,16 @@
         <v>5</v>
       </c>
       <c r="B14">
-        <v>1.099</v>
+        <v>1.087</v>
       </c>
       <c r="C14">
-        <v>0.32300000000000001</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="D14">
-        <v>1.4930000000000001</v>
+        <v>1.8140000000000001</v>
       </c>
       <c r="E14">
-        <v>0.18</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -666,16 +668,16 @@
         <v>6</v>
       </c>
       <c r="B15">
-        <v>0.32900000000000001</v>
+        <v>0.36899999999999999</v>
       </c>
       <c r="C15">
-        <v>0.51200000000000001</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="D15">
-        <v>0.97399999999999998</v>
+        <v>1.085</v>
       </c>
       <c r="E15">
-        <v>0.26900000000000002</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -683,16 +685,16 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>0.78</v>
+        <v>1.456</v>
       </c>
       <c r="C16">
-        <v>0.27200000000000002</v>
+        <v>0.39</v>
       </c>
       <c r="D16">
-        <v>2.71</v>
+        <v>2.42</v>
       </c>
       <c r="E16">
-        <v>0.36099999999999999</v>
+        <v>0.29199999999999998</v>
       </c>
     </row>
   </sheetData>
